--- a/DEWSapp/dewsdocs/DATAitcz10.xlsx
+++ b/DEWSapp/dewsdocs/DATAitcz10.xlsx
@@ -2719,20 +2719,128 @@
       <c r="B56" t="n">
         <v>2.6</v>
       </c>
+      <c r="C56" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="H56" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="I56" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="J56" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="K56" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>2026</v>
       </c>
+      <c r="B57" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>2027</v>
       </c>
+      <c r="B58" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="K58" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="L58" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>2028</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6.21</v>
       </c>
     </row>
     <row r="60">

--- a/DEWSapp/dewsdocs/DATAitcz10.xlsx
+++ b/DEWSapp/dewsdocs/DATAitcz10.xlsx
@@ -2594,7 +2594,7 @@
         <v>2022</v>
       </c>
       <c r="B53" t="n">
-        <v>2.275267658887108</v>
+        <v>2.28</v>
       </c>
       <c r="C53" t="n">
         <v>2.302913494688742</v>

--- a/DEWSapp/dewsdocs/DATAitcz10.xlsx
+++ b/DEWSapp/dewsdocs/DATAitcz10.xlsx
@@ -2553,7 +2553,7 @@
         <v>2021</v>
       </c>
       <c r="B52" t="n">
-        <v>1.51595653928924</v>
+        <v>1.52</v>
       </c>
       <c r="C52" t="n">
         <v>0.9152444075799757</v>
@@ -2842,20 +2842,137 @@
       <c r="B59" t="n">
         <v>6.21</v>
       </c>
+      <c r="C59" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="H59" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="J59" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="K59" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="L59" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>2029</v>
       </c>
+      <c r="B60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>2030</v>
       </c>
+      <c r="B61" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="H61" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="I61" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="J61" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="K61" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.87</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>2031</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.08</v>
       </c>
     </row>
     <row r="63">

--- a/DEWSapp/dewsdocs/DATAitcz10.xlsx
+++ b/DEWSapp/dewsdocs/DATAitcz10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9810" windowWidth="11085" xWindow="10965" yWindow="945"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9810" windowWidth="11085" xWindow="810" yWindow="375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,9 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,10 +45,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -430,8 +426,8 @@
   </sheetPr>
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1199,17 +1195,17 @@
       <c r="A19" t="n">
         <v>1988</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>3.580004368979715</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>4.616104123731942</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>3.075145817277654</v>
+      <c r="B19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.3</v>
       </c>
       <c r="E19" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="F19" t="n">
         <v>13.1</v>
@@ -1229,25 +1225,25 @@
       <c r="K19" t="n">
         <v>11.5</v>
       </c>
-      <c r="L19" s="1" t="n">
-        <v>6.402970024243134</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>4.77876487164578</v>
+      <c r="L19" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1989</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>3.606069562627562</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>4.489233650061978</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>3.065407327695179</v>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.3</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -1270,25 +1266,25 @@
       <c r="K20" t="n">
         <v>12.1</v>
       </c>
-      <c r="L20" s="1" t="n">
-        <v>6.488992477600523</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>4.868516903302864</v>
+      <c r="L20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1990</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>3.632134756275402</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>4.362373490213324</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>3.055668838112702</v>
+      <c r="B21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.2</v>
       </c>
       <c r="E21" t="n">
         <v>11.4</v>
@@ -1311,25 +1307,25 @@
       <c r="K21" t="n">
         <v>11.7</v>
       </c>
-      <c r="L21" s="1" t="n">
-        <v>6.575014930957913</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>4.958268934959944</v>
+      <c r="L21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1991</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>3.658199949923248</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>4.23552659072108</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>3.045930348530226</v>
+      <c r="B22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.9</v>
       </c>
       <c r="E22" t="n">
         <v>12.7</v>
@@ -1352,25 +1348,25 @@
       <c r="K22" t="n">
         <v>12.3</v>
       </c>
-      <c r="L22" s="1" t="n">
-        <v>6.661037384315303</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>5.048020966617028</v>
+      <c r="L22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1992</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>3.684265143571089</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>4.108695897817594</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>3.036191858947749</v>
+      <c r="B23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.8</v>
       </c>
       <c r="E23" t="n">
         <v>11.1</v>
@@ -1393,25 +1389,25 @@
       <c r="K23" t="n">
         <v>12.5</v>
       </c>
-      <c r="L23" s="1" t="n">
-        <v>6.747059837672692</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>5.137772998274109</v>
+      <c r="L23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1993</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>3.710330337218934</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>3.981884357285196</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>3.026453369365274</v>
+      <c r="B24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -1434,25 +1430,25 @@
       <c r="K24" t="n">
         <v>12.2</v>
       </c>
-      <c r="L24" s="1" t="n">
-        <v>6.833082291030082</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>5.227525029931193</v>
+      <c r="L24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1994</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>3.736395530866775</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>3.855094914279524</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>3.016714879782797</v>
+      <c r="B25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.9</v>
       </c>
       <c r="E25" t="n">
         <v>11.2</v>
@@ -1475,25 +1471,25 @@
       <c r="K25" t="n">
         <v>14.9</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <v>6.919104744387472</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>5.317277061588273</v>
+      <c r="L25" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1995</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>3.762460724514621</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>3.728330513123505</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>3.006976390200322</v>
+      <c r="B26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.4</v>
       </c>
       <c r="E26" t="n">
         <v>11.5</v>
@@ -1516,25 +1512,25 @@
       <c r="K26" t="n">
         <v>12.8</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <v>7.005127197744861</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>5.407029093245357</v>
+      <c r="L26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1996</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>3.788525918162462</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>3.601594097072037</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>2.997237900617845</v>
+      <c r="B27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.5</v>
       </c>
       <c r="E27" t="n">
         <v>11.2</v>
@@ -1557,25 +1553,25 @@
       <c r="K27" t="n">
         <v>12.4</v>
       </c>
-      <c r="L27" s="1" t="n">
-        <v>7.091149651102251</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>5.496781124902437</v>
+      <c r="L27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1997</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>3.814591111810307</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>3.474888608047476</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>2.987499411035369</v>
+      <c r="B28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.2</v>
       </c>
       <c r="E28" t="n">
         <v>11.7</v>
@@ -1598,25 +1594,25 @@
       <c r="K28" t="n">
         <v>14.4</v>
       </c>
-      <c r="L28" s="1" t="n">
-        <v>7.177172104459641</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>5.586533156559521</v>
+      <c r="L28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1998</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>3.840656305458148</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>3.34821698634599</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>2.977760921452893</v>
+      <c r="B29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.5</v>
       </c>
       <c r="E29" t="n">
         <v>11.8</v>
@@ -1639,25 +1635,25 @@
       <c r="K29" t="n">
         <v>13.4</v>
       </c>
-      <c r="L29" s="1" t="n">
-        <v>7.26319455781703</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>5.676285188216601</v>
+      <c r="L29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1999</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>3.866721499105994</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>3.221582170314952</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>2.968022431870417</v>
+      <c r="B30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.3</v>
       </c>
       <c r="E30" t="n">
         <v>12</v>
@@ -1680,25 +1676,25 @@
       <c r="K30" t="n">
         <v>13.6</v>
       </c>
-      <c r="L30" s="1" t="n">
-        <v>7.34921701117442</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>5.766037219873685</v>
+      <c r="L30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>2000</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>3.892786692753834</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>3.094987096001472</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>2.95828394228794</v>
+      <c r="B31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.3</v>
       </c>
       <c r="E31" t="n">
         <v>11.3</v>
@@ -1721,25 +1717,25 @@
       <c r="K31" t="n">
         <v>12.6</v>
       </c>
-      <c r="L31" s="1" t="n">
-        <v>7.43523946453181</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>5.855789251530766</v>
+      <c r="L31" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>2001</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>3.918851886401681</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>2.968434696772296</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>2.948545452705465</v>
+      <c r="B32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6</v>
       </c>
       <c r="E32" t="n">
         <v>12</v>
@@ -1762,25 +1758,25 @@
       <c r="K32" t="n">
         <v>11.7</v>
       </c>
-      <c r="L32" s="1" t="n">
-        <v>7.521261917889199</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>5.94554128318785</v>
+      <c r="L32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>2002</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>3.944917080049521</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>2.84192790290522</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>2.938806963122988</v>
+      <c r="B33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.2</v>
       </c>
       <c r="E33" t="n">
         <v>11.8</v>
@@ -1803,25 +1799,25 @@
       <c r="K33" t="n">
         <v>12.9</v>
       </c>
-      <c r="L33" s="1" t="n">
-        <v>7.607284371246589</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>6.03529331484493</v>
+      <c r="L33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>2003</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>3.970982273697367</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>2.715469641152328</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>2.929068473540513</v>
+      <c r="B34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
         <v>11.6</v>
@@ -1844,25 +1840,25 @@
       <c r="K34" t="n">
         <v>13.5</v>
       </c>
-      <c r="L34" s="1" t="n">
-        <v>7.693306824603979</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>6.125045346502014</v>
+      <c r="L34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>2004</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>3.997047467345208</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>2.589062834275269</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>2.919329983958036</v>
+      <c r="B35" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.3</v>
       </c>
       <c r="E35" t="n">
         <v>11.2</v>
@@ -1885,25 +1881,25 @@
       <c r="K35" t="n">
         <v>11.4</v>
       </c>
-      <c r="L35" s="1" t="n">
-        <v>7.779329277961368</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>6.214797378159094</v>
+      <c r="L35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>2005</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>4.023112660993053</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>2.462710400552914</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>2.909591494375561</v>
+      <c r="B36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.9</v>
       </c>
       <c r="E36" t="n">
         <v>10.4</v>
@@ -1926,25 +1922,25 @@
       <c r="K36" t="n">
         <v>12.3</v>
       </c>
-      <c r="L36" s="1" t="n">
-        <v>7.865351731318758</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>6.304549409816178</v>
+      <c r="L36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>2006</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>4.049177854640893</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>2.336415253261749</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>2.899853004793083</v>
+      <c r="B37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.4</v>
       </c>
       <c r="E37" t="n">
         <v>8.9</v>
@@ -1967,25 +1963,25 @@
       <c r="K37" t="n">
         <v>13.5</v>
       </c>
-      <c r="L37" s="1" t="n">
-        <v>7.951374184676148</v>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>6.394301441473258</v>
+      <c r="L37" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>2007</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>4.075243048288741</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>2.210180300129366</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>2.890114515210608</v>
+      <c r="B38" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.2</v>
       </c>
       <c r="E38" t="n">
         <v>12.3</v>
@@ -2008,25 +2004,25 @@
       <c r="K38" t="n">
         <v>12.7</v>
       </c>
-      <c r="L38" s="1" t="n">
-        <v>8.037396638033536</v>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>6.484053473130342</v>
+      <c r="L38" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>2008</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>4.101308241936581</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>2.08400844276152</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>2.880376025628131</v>
+      <c r="B39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.3</v>
       </c>
       <c r="E39" t="n">
         <v>11.3</v>
@@ -2049,25 +2045,25 @@
       <c r="K39" t="n">
         <v>12.1</v>
       </c>
-      <c r="L39" s="1" t="n">
-        <v>8.123419091390927</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>6.573805504787423</v>
+      <c r="L39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>2009</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>4.127373435584427</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>1.957902576043201</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>2.870637536045656</v>
+      <c r="B40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.7</v>
       </c>
       <c r="E40" t="n">
         <v>11.9</v>
@@ -2090,25 +2086,25 @@
       <c r="K40" t="n">
         <v>13.6</v>
       </c>
-      <c r="L40" s="1" t="n">
-        <v>8.209441544748316</v>
-      </c>
-      <c r="M40" s="1" t="n">
-        <v>6.663557536444507</v>
+      <c r="L40" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>2010</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>4.153438629232267</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>1.831865587514266</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>2.860899046463179</v>
+      <c r="B41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.1</v>
       </c>
       <c r="E41" t="n">
         <v>10.2</v>
@@ -2131,25 +2127,25 @@
       <c r="K41" t="n">
         <v>14.2</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <v>8.295463998105706</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>6.753309568101588</v>
+      <c r="L41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>2011</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>4.179503822880113</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>1.705900356720186</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>2.851160556880704</v>
+      <c r="B42" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.9</v>
       </c>
       <c r="E42" t="n">
         <v>9.9</v>
@@ -2172,25 +2168,25 @@
       <c r="K42" t="n">
         <v>11.9</v>
       </c>
-      <c r="L42" s="1" t="n">
-        <v>8.381486451463095</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>6.843061599758671</v>
+      <c r="L42" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>2012</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>4.205569016527953</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>1.580009754538533</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>2.841422067298227</v>
+      <c r="B43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.1</v>
       </c>
       <c r="E43" t="n">
         <v>11.1</v>
@@ -2213,25 +2209,25 @@
       <c r="K43" t="n">
         <v>12.7</v>
       </c>
-      <c r="L43" s="1" t="n">
-        <v>8.467508904820486</v>
-      </c>
-      <c r="M43" s="1" t="n">
-        <v>6.932813631415752</v>
+      <c r="L43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>2013</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>4.2316342101758</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>1.454196642481886</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>2.831683577715752</v>
+      <c r="B44" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.3</v>
       </c>
       <c r="E44" t="n">
         <v>12.1</v>
@@ -2254,25 +2250,25 @@
       <c r="K44" t="n">
         <v>10.9</v>
       </c>
-      <c r="L44" s="1" t="n">
-        <v>8.553531358177874</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>7.022565663072835</v>
+      <c r="L44" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>2014</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>4.25769940382364</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>1.328463871977853</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>2.821945088133274</v>
+      <c r="B45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.7</v>
       </c>
       <c r="E45" t="n">
         <v>12.7</v>
@@ -2295,25 +2291,25 @@
       <c r="K45" t="n">
         <v>12.3</v>
       </c>
-      <c r="L45" s="1" t="n">
-        <v>8.639553811535265</v>
-      </c>
-      <c r="M45" s="1" t="n">
-        <v>7.112317694729916</v>
+      <c r="L45" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>2015</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>4.283764597471486</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>1.202814283627009</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>2.812206598550799</v>
+      <c r="B46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
       </c>
       <c r="E46" t="n">
         <v>8.800000000000001</v>
@@ -2336,25 +2332,25 @@
       <c r="K46" t="n">
         <v>12.1</v>
       </c>
-      <c r="L46" s="1" t="n">
-        <v>8.725576264892654</v>
-      </c>
-      <c r="M46" s="1" t="n">
-        <v>7.202069726386999</v>
+      <c r="L46" t="n">
+        <v>7</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2016</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>4.309829791119326</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>1.077250706439543</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>2.802468108968322</v>
+      <c r="B47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.4</v>
       </c>
       <c r="E47" t="n">
         <v>11.2</v>
@@ -2377,25 +2373,25 @@
       <c r="K47" t="n">
         <v>10.6</v>
       </c>
-      <c r="L47" s="1" t="n">
-        <v>8.811598718250044</v>
-      </c>
-      <c r="M47" s="1" t="n">
-        <v>7.291821758044081</v>
+      <c r="L47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>2017</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>4.335894984767172</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>0.9517759570515287</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>2.792729619385847</v>
+      <c r="B48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6.7</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -2418,25 +2414,25 @@
       <c r="K48" t="n">
         <v>9.9</v>
       </c>
-      <c r="L48" s="1" t="n">
-        <v>8.897621171607433</v>
-      </c>
-      <c r="M48" s="1" t="n">
-        <v>7.381573789701164</v>
+      <c r="L48" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>2018</v>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>4.361960178415012</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>0.8263928389217066</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>2.78299112980337</v>
+      <c r="B49" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.1</v>
       </c>
       <c r="E49" t="n">
         <v>11</v>
@@ -2459,25 +2455,25 @@
       <c r="K49" t="n">
         <v>12.9</v>
       </c>
-      <c r="L49" s="1" t="n">
-        <v>8.983643624964824</v>
-      </c>
-      <c r="M49" s="1" t="n">
-        <v>7.471325821358245</v>
+      <c r="L49" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>2019</v>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>4.388025372062859</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>0.7011041415097932</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>2.773252640220895</v>
+      <c r="B50" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.1</v>
       </c>
       <c r="E50" t="n">
         <v>10.5</v>
@@ -2500,25 +2496,25 @@
       <c r="K50" t="n">
         <v>14.6</v>
       </c>
-      <c r="L50" s="1" t="n">
-        <v>9.069666078322212</v>
-      </c>
-      <c r="M50" s="1" t="n">
-        <v>7.561077853015328</v>
+      <c r="L50" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>2020</v>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>4.414090565710699</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>0.5759126394373331</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>2.763514150638418</v>
+      <c r="B51" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.4</v>
       </c>
       <c r="E51" t="n">
         <v>11</v>
@@ -2541,11 +2537,11 @@
       <c r="K51" t="n">
         <v>12.4</v>
       </c>
-      <c r="L51" s="1" t="n">
-        <v>9.155688531679603</v>
-      </c>
-      <c r="M51" s="1" t="n">
-        <v>7.650829884672409</v>
+      <c r="L51" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="52">
@@ -2553,40 +2549,40 @@
         <v>2021</v>
       </c>
       <c r="B52" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9152444075799757</v>
+        <v>3.652</v>
       </c>
       <c r="D52" t="n">
-        <v>4.480340062569157</v>
+        <v>5.36</v>
       </c>
       <c r="E52" t="n">
-        <v>7.952641244851721</v>
+        <v>8.292999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>13.10225182880927</v>
+        <v>11.378</v>
       </c>
       <c r="G52" t="n">
-        <v>11.48712374638451</v>
+        <v>12.46</v>
       </c>
       <c r="H52" t="n">
-        <v>14.05573130126361</v>
+        <v>13.417</v>
       </c>
       <c r="I52" t="n">
-        <v>11.16377327084831</v>
+        <v>13.562</v>
       </c>
       <c r="J52" t="n">
-        <v>11.15319955134148</v>
+        <v>11.595</v>
       </c>
       <c r="K52" t="n">
-        <v>6.415024910398413</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9196184341340716</v>
+        <v>6.912</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.5813573606890077</v>
+        <v>4.532</v>
       </c>
     </row>
     <row r="53">
@@ -2594,40 +2590,40 @@
         <v>2022</v>
       </c>
       <c r="B53" t="n">
-        <v>2.28</v>
+        <v>2.37</v>
       </c>
       <c r="C53" t="n">
-        <v>2.302913494688742</v>
+        <v>3.194</v>
       </c>
       <c r="D53" t="n">
-        <v>5.001681911885177</v>
+        <v>5.205</v>
       </c>
       <c r="E53" t="n">
-        <v>5.293943347911204</v>
+        <v>7.373</v>
       </c>
       <c r="F53" t="n">
-        <v>10.22940658677142</v>
+        <v>9.891</v>
       </c>
       <c r="G53" t="n">
-        <v>9.013367644401292</v>
+        <v>12.169</v>
       </c>
       <c r="H53" t="n">
-        <v>13.2778778721038</v>
+        <v>14.364</v>
       </c>
       <c r="I53" t="n">
-        <v>11.1524454704626</v>
+        <v>14.12</v>
       </c>
       <c r="J53" t="n">
-        <v>8.369259500530505</v>
+        <v>11.64</v>
       </c>
       <c r="K53" t="n">
-        <v>8.15080024511453</v>
+        <v>9.082000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>7.815568936855576</v>
+        <v>6.68</v>
       </c>
       <c r="M53" t="n">
-        <v>2.427186587446155</v>
+        <v>5.786</v>
       </c>
     </row>
     <row r="54">
@@ -2635,40 +2631,40 @@
         <v>2023</v>
       </c>
       <c r="B54" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="C54" t="n">
-        <v>2.1682581198623</v>
+        <v>3.634</v>
       </c>
       <c r="D54" t="n">
-        <v>2.360634121196736</v>
+        <v>4.754</v>
       </c>
       <c r="E54" t="n">
-        <v>4.779086267897712</v>
+        <v>7.488</v>
       </c>
       <c r="F54" t="n">
-        <v>12.55393244079603</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>10.57039874502727</v>
+        <v>12.363</v>
       </c>
       <c r="H54" t="n">
-        <v>12.20565874715982</v>
+        <v>13.462</v>
       </c>
       <c r="I54" t="n">
-        <v>12.87972474571067</v>
+        <v>13.828</v>
       </c>
       <c r="J54" t="n">
-        <v>12.27793819547424</v>
+        <v>11.927</v>
       </c>
       <c r="K54" t="n">
-        <v>9.614834987830275</v>
+        <v>9.196999999999999</v>
       </c>
       <c r="L54" t="n">
-        <v>7.503800598955147</v>
+        <v>6.87</v>
       </c>
       <c r="M54" t="n">
-        <v>2.583518334377485</v>
+        <v>5.212</v>
       </c>
     </row>
     <row r="55">
@@ -2676,40 +2672,40 @@
         <v>2024</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="C55" t="n">
-        <v>3.19</v>
+        <v>4.649</v>
       </c>
       <c r="D55" t="n">
-        <v>3.42</v>
+        <v>5.299</v>
       </c>
       <c r="E55" t="n">
-        <v>3.3</v>
+        <v>8.471</v>
       </c>
       <c r="F55" t="n">
-        <v>11.38</v>
+        <v>10.446</v>
       </c>
       <c r="G55" t="n">
-        <v>12.33</v>
+        <v>13.104</v>
       </c>
       <c r="H55" t="n">
-        <v>13.98</v>
+        <v>14.577</v>
       </c>
       <c r="I55" t="n">
-        <v>13.69</v>
+        <v>14.151</v>
       </c>
       <c r="J55" t="n">
-        <v>9.48</v>
+        <v>11.691</v>
       </c>
       <c r="K55" t="n">
-        <v>7.58</v>
+        <v>9.064</v>
       </c>
       <c r="L55" t="n">
-        <v>6.77</v>
+        <v>7.726</v>
       </c>
       <c r="M55" t="n">
-        <v>1.88</v>
+        <v>5.862</v>
       </c>
     </row>
     <row r="56">
@@ -2717,40 +2713,40 @@
         <v>2025</v>
       </c>
       <c r="B56" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="C56" t="n">
-        <v>3.27</v>
+        <v>4.514</v>
       </c>
       <c r="D56" t="n">
-        <v>4.68</v>
+        <v>5.546</v>
       </c>
       <c r="E56" t="n">
-        <v>8.91</v>
+        <v>7.33</v>
       </c>
       <c r="F56" t="n">
-        <v>10.01</v>
+        <v>11.435</v>
       </c>
       <c r="G56" t="n">
-        <v>10.93</v>
+        <v>12.717</v>
       </c>
       <c r="H56" t="n">
-        <v>15.16</v>
+        <v>13.314</v>
       </c>
       <c r="I56" t="n">
-        <v>13.86</v>
+        <v>13.482</v>
       </c>
       <c r="J56" t="n">
-        <v>9.59</v>
+        <v>11.143</v>
       </c>
       <c r="K56" t="n">
-        <v>9.56</v>
+        <v>10.008</v>
       </c>
       <c r="L56" t="n">
-        <v>7.94</v>
+        <v>7.339</v>
       </c>
       <c r="M56" t="n">
-        <v>2.53</v>
+        <v>4.209</v>
       </c>
     </row>
     <row r="57">
@@ -2758,40 +2754,40 @@
         <v>2026</v>
       </c>
       <c r="B57" t="n">
-        <v>5.07</v>
+        <v>5.1</v>
       </c>
       <c r="C57" t="n">
-        <v>4.78</v>
+        <v>3.434</v>
       </c>
       <c r="D57" t="n">
-        <v>4.33</v>
+        <v>5.531</v>
       </c>
       <c r="E57" t="n">
-        <v>4.67</v>
+        <v>7.456</v>
       </c>
       <c r="F57" t="n">
-        <v>8.470000000000001</v>
+        <v>10.273</v>
       </c>
       <c r="G57" t="n">
-        <v>9.34</v>
+        <v>13.113</v>
       </c>
       <c r="H57" t="n">
-        <v>15.92</v>
+        <v>14.088</v>
       </c>
       <c r="I57" t="n">
-        <v>13.89</v>
+        <v>13.422</v>
       </c>
       <c r="J57" t="n">
-        <v>12.8</v>
+        <v>11.147</v>
       </c>
       <c r="K57" t="n">
-        <v>7.41</v>
+        <v>9.602</v>
       </c>
       <c r="L57" t="n">
-        <v>4.97</v>
+        <v>6.942</v>
       </c>
       <c r="M57" t="n">
-        <v>3.14</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="58">
@@ -2799,40 +2795,40 @@
         <v>2027</v>
       </c>
       <c r="B58" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C58" t="n">
-        <v>2.07</v>
+        <v>3.801</v>
       </c>
       <c r="D58" t="n">
-        <v>3.11</v>
+        <v>5.068</v>
       </c>
       <c r="E58" t="n">
-        <v>7.39</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>7.98</v>
+        <v>10.412</v>
       </c>
       <c r="G58" t="n">
-        <v>11.72</v>
+        <v>11.494</v>
       </c>
       <c r="H58" t="n">
-        <v>10.63</v>
+        <v>13.725</v>
       </c>
       <c r="I58" t="n">
-        <v>10.5</v>
+        <v>13.796</v>
       </c>
       <c r="J58" t="n">
-        <v>12.65</v>
+        <v>10.772</v>
       </c>
       <c r="K58" t="n">
-        <v>8.85</v>
+        <v>10.031</v>
       </c>
       <c r="L58" t="n">
-        <v>7.6</v>
+        <v>5.823</v>
       </c>
       <c r="M58" t="n">
-        <v>3.23</v>
+        <v>4.309</v>
       </c>
     </row>
     <row r="59">
@@ -2840,40 +2836,40 @@
         <v>2028</v>
       </c>
       <c r="B59" t="n">
-        <v>6.21</v>
+        <v>6.23</v>
       </c>
       <c r="C59" t="n">
-        <v>2.18</v>
+        <v>3.694</v>
       </c>
       <c r="D59" t="n">
-        <v>2.61</v>
+        <v>5.326</v>
       </c>
       <c r="E59" t="n">
-        <v>5.65</v>
+        <v>7.618</v>
       </c>
       <c r="F59" t="n">
-        <v>10.47</v>
+        <v>10.865</v>
       </c>
       <c r="G59" t="n">
-        <v>13.22</v>
+        <v>11.943</v>
       </c>
       <c r="H59" t="n">
-        <v>14.03</v>
+        <v>14.149</v>
       </c>
       <c r="I59" t="n">
-        <v>13.52</v>
+        <v>13.778</v>
       </c>
       <c r="J59" t="n">
-        <v>10.26</v>
+        <v>11.606</v>
       </c>
       <c r="K59" t="n">
-        <v>7.26</v>
+        <v>8.927</v>
       </c>
       <c r="L59" t="n">
-        <v>10.11</v>
+        <v>6.863</v>
       </c>
       <c r="M59" t="n">
-        <v>1.12</v>
+        <v>4.126</v>
       </c>
     </row>
     <row r="60">
@@ -2881,40 +2877,40 @@
         <v>2029</v>
       </c>
       <c r="B60" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="C60" t="n">
-        <v>2.53</v>
+        <v>4.172</v>
       </c>
       <c r="D60" t="n">
-        <v>0.97</v>
+        <v>5.448</v>
       </c>
       <c r="E60" t="n">
-        <v>5.29</v>
+        <v>7.374</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>10.656</v>
       </c>
       <c r="G60" t="n">
-        <v>10.99</v>
+        <v>11.275</v>
       </c>
       <c r="H60" t="n">
-        <v>10.93</v>
+        <v>13.92</v>
       </c>
       <c r="I60" t="n">
-        <v>13.26</v>
+        <v>13.852</v>
       </c>
       <c r="J60" t="n">
-        <v>12.15</v>
+        <v>11.72</v>
       </c>
       <c r="K60" t="n">
-        <v>11.15</v>
+        <v>9.686</v>
       </c>
       <c r="L60" t="n">
-        <v>6.85</v>
+        <v>7.628</v>
       </c>
       <c r="M60" t="n">
-        <v>1.3</v>
+        <v>5.143</v>
       </c>
     </row>
     <row r="61">
@@ -2922,40 +2918,40 @@
         <v>2030</v>
       </c>
       <c r="B61" t="n">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="C61" t="n">
-        <v>3.36</v>
+        <v>3.81</v>
       </c>
       <c r="D61" t="n">
-        <v>2.41</v>
+        <v>5.361</v>
       </c>
       <c r="E61" t="n">
-        <v>2.95</v>
+        <v>8.052</v>
       </c>
       <c r="F61" t="n">
-        <v>8.800000000000001</v>
+        <v>10.748</v>
       </c>
       <c r="G61" t="n">
-        <v>12.33</v>
+        <v>12.533</v>
       </c>
       <c r="H61" t="n">
-        <v>12.35</v>
+        <v>13.589</v>
       </c>
       <c r="I61" t="n">
-        <v>14.54</v>
+        <v>13.6</v>
       </c>
       <c r="J61" t="n">
-        <v>10.39</v>
+        <v>11.608</v>
       </c>
       <c r="K61" t="n">
-        <v>8.42</v>
+        <v>9.938000000000001</v>
       </c>
       <c r="L61" t="n">
-        <v>5.71</v>
+        <v>7.406</v>
       </c>
       <c r="M61" t="n">
-        <v>3.87</v>
+        <v>3.755</v>
       </c>
     </row>
     <row r="62">
@@ -2963,16 +2959,40 @@
         <v>2031</v>
       </c>
       <c r="B62" t="n">
-        <v>3.38</v>
+        <v>3.91</v>
       </c>
       <c r="C62" t="n">
-        <v>2.79</v>
+        <v>4.016</v>
       </c>
       <c r="D62" t="n">
-        <v>3.04</v>
+        <v>5.033</v>
       </c>
       <c r="E62" t="n">
-        <v>4.08</v>
+        <v>6.361</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10.306</v>
+      </c>
+      <c r="G62" t="n">
+        <v>11.336</v>
+      </c>
+      <c r="H62" t="n">
+        <v>13.012</v>
+      </c>
+      <c r="I62" t="n">
+        <v>13.173</v>
+      </c>
+      <c r="J62" t="n">
+        <v>11.474</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9.602</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.078</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.991</v>
       </c>
     </row>
     <row r="63">

--- a/DEWSapp/dewsdocs/DATAitcz10.xlsx
+++ b/DEWSapp/dewsdocs/DATAitcz10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9810" windowWidth="11085" xWindow="810" yWindow="375"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="810" yWindow="375" windowWidth="11085" windowHeight="9810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,15 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2959,7 +2959,7 @@
         <v>2031</v>
       </c>
       <c r="B62" t="n">
-        <v>3.91</v>
+        <v>3.38</v>
       </c>
       <c r="C62" t="n">
         <v>4.016</v>
@@ -3091,6 +3091,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>